--- a/data/pca/factorExposure/factorExposure_2017-12-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-12-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.0087255909826221</v>
+        <v>-0.008716309293811</v>
       </c>
       <c r="C2">
-        <v>-0.002753816879416281</v>
+        <v>-0.03319007110215487</v>
       </c>
       <c r="D2">
-        <v>-0.02554775029790598</v>
+        <v>0.02822683793615459</v>
       </c>
       <c r="E2">
-        <v>-0.06187666143873111</v>
+        <v>-0.02670935211022306</v>
       </c>
       <c r="F2">
-        <v>-0.00412144025278644</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03326377578594078</v>
+      </c>
+      <c r="G2">
+        <v>-0.01068330501520196</v>
+      </c>
+      <c r="H2">
+        <v>-0.006861282180487894</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.06907626018616216</v>
+        <v>-0.06256009098399708</v>
       </c>
       <c r="C3">
-        <v>-0.0007436318538401035</v>
+        <v>-0.08671352631803235</v>
       </c>
       <c r="D3">
-        <v>0.05572069420937954</v>
+        <v>0.01315052738704604</v>
       </c>
       <c r="E3">
-        <v>-0.2444563511429675</v>
+        <v>-0.073200525624737</v>
       </c>
       <c r="F3">
-        <v>0.02005493322560605</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.08530325963243157</v>
+      </c>
+      <c r="G3">
+        <v>-0.06399602894892591</v>
+      </c>
+      <c r="H3">
+        <v>0.002035174090536923</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03854461227100003</v>
+        <v>-0.0511840269123554</v>
       </c>
       <c r="C4">
-        <v>0.01673398765384908</v>
+        <v>-0.06082256313994922</v>
       </c>
       <c r="D4">
-        <v>-0.033188322660556</v>
+        <v>0.02154733159237921</v>
       </c>
       <c r="E4">
-        <v>-0.03514134147358358</v>
+        <v>0.001879392890797971</v>
       </c>
       <c r="F4">
-        <v>0.04553779920411826</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.01884161212832967</v>
+      </c>
+      <c r="G4">
+        <v>-0.03734316039651266</v>
+      </c>
+      <c r="H4">
+        <v>0.02736903958745634</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.06596297565628791</v>
+        <v>-0.02752466542204799</v>
       </c>
       <c r="C6">
-        <v>0.006538278445033211</v>
+        <v>-0.05877740678412959</v>
       </c>
       <c r="D6">
-        <v>-0.04603504310696446</v>
+        <v>0.01635959587149727</v>
       </c>
       <c r="E6">
-        <v>-0.02833477154261613</v>
+        <v>-0.002128642696909188</v>
       </c>
       <c r="F6">
-        <v>0.04579736400372732</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.01670667394998507</v>
+      </c>
+      <c r="G6">
+        <v>-0.01894329440893316</v>
+      </c>
+      <c r="H6">
+        <v>0.002856148252094204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02590312645180897</v>
+        <v>-0.0158514763008141</v>
       </c>
       <c r="C7">
-        <v>0.06984343680556705</v>
+        <v>-0.03752538179599834</v>
       </c>
       <c r="D7">
-        <v>0.000126742462152135</v>
+        <v>0.01229906773975492</v>
       </c>
       <c r="E7">
-        <v>-0.009409472366028283</v>
+        <v>0.01638024556885126</v>
       </c>
       <c r="F7">
-        <v>-0.007155194837354756</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.008394913506958056</v>
+      </c>
+      <c r="G7">
+        <v>-0.07254039606363621</v>
+      </c>
+      <c r="H7">
+        <v>-0.003679492176467803</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01290081480641053</v>
+        <v>0.005791412533569728</v>
       </c>
       <c r="C8">
-        <v>0.008766535756471837</v>
+        <v>-0.0119067594523712</v>
       </c>
       <c r="D8">
-        <v>-0.02103120016579121</v>
+        <v>0.003525067942107307</v>
       </c>
       <c r="E8">
-        <v>-0.03234393390894162</v>
+        <v>-0.01201661381610259</v>
       </c>
       <c r="F8">
-        <v>0.005658250060422298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.0238632882880829</v>
+      </c>
+      <c r="G8">
+        <v>-0.02522987921142745</v>
+      </c>
+      <c r="H8">
+        <v>0.02198262508151488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0305277592509339</v>
+        <v>-0.02527046106111122</v>
       </c>
       <c r="C9">
-        <v>0.01189707980315779</v>
+        <v>-0.04201767548959563</v>
       </c>
       <c r="D9">
-        <v>-0.02351846460835751</v>
+        <v>0.01507742398276304</v>
       </c>
       <c r="E9">
-        <v>-0.05385566108813797</v>
+        <v>0.00117061958932154</v>
       </c>
       <c r="F9">
-        <v>0.03191511105130136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.01981866570656387</v>
+      </c>
+      <c r="G9">
+        <v>-0.02774359950126785</v>
+      </c>
+      <c r="H9">
+        <v>-0.004734898245988763</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.06531607751604804</v>
+        <v>-0.09630570421339668</v>
       </c>
       <c r="C10">
-        <v>-0.01916838757761749</v>
+        <v>0.1768068872338736</v>
       </c>
       <c r="D10">
-        <v>0.1691396068074311</v>
+        <v>-0.02007303170870001</v>
       </c>
       <c r="E10">
-        <v>-0.02093931516351753</v>
+        <v>-0.01836666758658394</v>
       </c>
       <c r="F10">
-        <v>-0.009196562104616631</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.01195967065419062</v>
+      </c>
+      <c r="G10">
+        <v>-0.03376996810671995</v>
+      </c>
+      <c r="H10">
+        <v>-0.02680775094546272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02874846863359473</v>
+        <v>-0.03248121839017461</v>
       </c>
       <c r="C11">
-        <v>-0.001545408327175128</v>
+        <v>-0.05577426532685084</v>
       </c>
       <c r="D11">
-        <v>-0.04329818484930011</v>
+        <v>0.0007784843530871062</v>
       </c>
       <c r="E11">
-        <v>-0.01573842317753234</v>
+        <v>0.008061585643969457</v>
       </c>
       <c r="F11">
-        <v>0.02411929622613464</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.02706093245900027</v>
+      </c>
+      <c r="G11">
+        <v>-0.007959791464983641</v>
+      </c>
+      <c r="H11">
+        <v>0.001107879017501542</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03531273721857372</v>
+        <v>-0.03254296551502654</v>
       </c>
       <c r="C12">
-        <v>0.006644551719265947</v>
+        <v>-0.04912595637650666</v>
       </c>
       <c r="D12">
-        <v>-0.04178136485035573</v>
+        <v>0.005076504546781943</v>
       </c>
       <c r="E12">
-        <v>0.009490371443502945</v>
+        <v>0.01342145003831368</v>
       </c>
       <c r="F12">
-        <v>0.001635392256160895</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.007232695710440439</v>
+      </c>
+      <c r="G12">
+        <v>-0.01396176734986929</v>
+      </c>
+      <c r="H12">
+        <v>0.0002009258846186757</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01934270200845292</v>
+        <v>-0.009328840579826556</v>
       </c>
       <c r="C13">
-        <v>-0.0008009499515438783</v>
+        <v>-0.03037767031647541</v>
       </c>
       <c r="D13">
-        <v>-0.01741495236374183</v>
+        <v>0.02414521234259909</v>
       </c>
       <c r="E13">
-        <v>-0.04250167736987735</v>
+        <v>-0.01731287155019817</v>
       </c>
       <c r="F13">
-        <v>0.03095127920858521</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.03281777578909822</v>
+      </c>
+      <c r="G13">
+        <v>-0.02301510468760529</v>
+      </c>
+      <c r="H13">
+        <v>0.01282635322113837</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01473342716160395</v>
+        <v>-0.007589934783551325</v>
       </c>
       <c r="C14">
-        <v>0.01472300784587682</v>
+        <v>-0.02657802082036424</v>
       </c>
       <c r="D14">
-        <v>-0.008912051389818498</v>
+        <v>0.008072237576855101</v>
       </c>
       <c r="E14">
-        <v>-0.01958465914937771</v>
+        <v>0.007217358975099757</v>
       </c>
       <c r="F14">
-        <v>0.0005675075201567896</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.002552773511181869</v>
+      </c>
+      <c r="G14">
+        <v>-0.03245100663770559</v>
+      </c>
+      <c r="H14">
+        <v>0.01603982774575791</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02729948763816171</v>
+        <v>-0.0288354690873108</v>
       </c>
       <c r="C16">
-        <v>0.004349449543314117</v>
+        <v>-0.04375915033893646</v>
       </c>
       <c r="D16">
-        <v>-0.04064835005261763</v>
+        <v>0.000457948477381762</v>
       </c>
       <c r="E16">
-        <v>-0.01633607640661124</v>
+        <v>0.004880761944841788</v>
       </c>
       <c r="F16">
-        <v>0.03117379944263126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.01475749621683914</v>
+      </c>
+      <c r="G16">
+        <v>-0.01315156672879253</v>
+      </c>
+      <c r="H16">
+        <v>0.003567091565640953</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.02695488439000054</v>
+        <v>-0.02382821023285768</v>
       </c>
       <c r="C19">
-        <v>0.002126581999801836</v>
+        <v>-0.0550694369982109</v>
       </c>
       <c r="D19">
-        <v>-0.03545597452855409</v>
+        <v>0.01463853906590876</v>
       </c>
       <c r="E19">
-        <v>-0.05281831503015651</v>
+        <v>-0.03039051772489135</v>
       </c>
       <c r="F19">
-        <v>0.06825881906688104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.04400789080296029</v>
+      </c>
+      <c r="G19">
+        <v>-0.03485669589763563</v>
+      </c>
+      <c r="H19">
+        <v>0.03595687396985769</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.003451948947868548</v>
+        <v>-0.007234586879953236</v>
       </c>
       <c r="C20">
-        <v>0.002981583998313738</v>
+        <v>-0.03182079527529764</v>
       </c>
       <c r="D20">
-        <v>0.0003620575954246875</v>
+        <v>0.01264039913272352</v>
       </c>
       <c r="E20">
-        <v>-0.0298097792387226</v>
+        <v>-0.01678145131613194</v>
       </c>
       <c r="F20">
-        <v>0.001799350380976943</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01216010553447382</v>
+      </c>
+      <c r="G20">
+        <v>-0.02237045285715349</v>
+      </c>
+      <c r="H20">
+        <v>0.01003815446082832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03851845601877849</v>
+        <v>-0.01012460186752697</v>
       </c>
       <c r="C21">
-        <v>0.02268867396406258</v>
+        <v>-0.03571424114146658</v>
       </c>
       <c r="D21">
-        <v>-0.01375650454461222</v>
+        <v>0.01571300903463949</v>
       </c>
       <c r="E21">
-        <v>-0.0256655802995569</v>
+        <v>-0.02212428433275649</v>
       </c>
       <c r="F21">
-        <v>0.02945885304618156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.02279620974343725</v>
+      </c>
+      <c r="G21">
+        <v>-0.04632321207307445</v>
+      </c>
+      <c r="H21">
+        <v>0.01212201605421666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,70 +1295,94 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02630777639690339</v>
+        <v>-0.02270436891600725</v>
       </c>
       <c r="C24">
-        <v>0.002023598717617254</v>
+        <v>-0.04658707720978603</v>
       </c>
       <c r="D24">
-        <v>-0.03434204745927133</v>
+        <v>0.005823211474982595</v>
       </c>
       <c r="E24">
-        <v>-0.01422970118446319</v>
+        <v>0.01018219685186143</v>
       </c>
       <c r="F24">
-        <v>0.02231325925889717</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.02200750783787294</v>
+      </c>
+      <c r="G24">
+        <v>-0.01041610981370122</v>
+      </c>
+      <c r="H24">
+        <v>-0.004886333015072152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03925512611936213</v>
+        <v>-0.04064332597983474</v>
       </c>
       <c r="C25">
-        <v>0.0005225413584904739</v>
+        <v>-0.05515067593755714</v>
       </c>
       <c r="D25">
-        <v>-0.03302080926842572</v>
+        <v>0.009504499612152181</v>
       </c>
       <c r="E25">
-        <v>-0.02712948250250757</v>
+        <v>0.0172985358762967</v>
       </c>
       <c r="F25">
-        <v>0.03343092771732132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01856322104479021</v>
+      </c>
+      <c r="G25">
+        <v>-0.01703731926423304</v>
+      </c>
+      <c r="H25">
+        <v>0.007126304076988671</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.001146466200041698</v>
+        <v>-0.00132920802542373</v>
       </c>
       <c r="C26">
-        <v>0.009436297567121298</v>
+        <v>-0.00699867078139096</v>
       </c>
       <c r="D26">
-        <v>-0.001048027408511147</v>
+        <v>0.02380480273744271</v>
       </c>
       <c r="E26">
-        <v>-0.0313556252718064</v>
+        <v>-0.003589842845878371</v>
       </c>
       <c r="F26">
-        <v>-0.01484624878594226</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.007922847697798848</v>
+      </c>
+      <c r="G26">
+        <v>-0.02143214506248461</v>
+      </c>
+      <c r="H26">
+        <v>0.007523607403546699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,150 +1399,198 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1005598271872855</v>
+        <v>-0.1239970445378109</v>
       </c>
       <c r="C28">
-        <v>-0.02726859218310651</v>
+        <v>0.2159221782109407</v>
       </c>
       <c r="D28">
-        <v>0.2392795688058751</v>
+        <v>-0.01165812449036842</v>
       </c>
       <c r="E28">
-        <v>-0.0100090165837071</v>
+        <v>-0.01107319348223786</v>
       </c>
       <c r="F28">
-        <v>-0.01299039865895201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.01131138066797156</v>
+      </c>
+      <c r="G28">
+        <v>-0.04892545900592538</v>
+      </c>
+      <c r="H28">
+        <v>-0.01415212510025077</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01458356849240409</v>
+        <v>-0.01252150647616323</v>
       </c>
       <c r="C29">
-        <v>0.01094976819918824</v>
+        <v>-0.02226710767960587</v>
       </c>
       <c r="D29">
-        <v>-0.01120215184317882</v>
+        <v>0.006890839718011532</v>
       </c>
       <c r="E29">
-        <v>-0.01948826968716669</v>
+        <v>0.005473573667748044</v>
       </c>
       <c r="F29">
-        <v>0.003356778666186762</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.004079408280945112</v>
+      </c>
+      <c r="G29">
+        <v>-0.02592800196176217</v>
+      </c>
+      <c r="H29">
+        <v>0.02173305856759855</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0476862788706297</v>
+        <v>-0.0321960610390618</v>
       </c>
       <c r="C30">
-        <v>-0.04815076039680902</v>
+        <v>-0.07212046186303618</v>
       </c>
       <c r="D30">
-        <v>-0.06978788523995993</v>
+        <v>0.02677314007379659</v>
       </c>
       <c r="E30">
-        <v>-0.06495285273971595</v>
+        <v>-0.01602291962379601</v>
       </c>
       <c r="F30">
-        <v>0.02687554169534647</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.04720366264895704</v>
+      </c>
+      <c r="G30">
+        <v>0.01235278265336235</v>
+      </c>
+      <c r="H30">
+        <v>0.01480958300134757</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04773587858028609</v>
+        <v>-0.03911865080353187</v>
       </c>
       <c r="C31">
-        <v>0.01377676753403167</v>
+        <v>-0.02762336454661342</v>
       </c>
       <c r="D31">
-        <v>-0.016330422488916</v>
+        <v>0.002391505440957105</v>
       </c>
       <c r="E31">
-        <v>0.001844113062985602</v>
+        <v>0.01702135807589477</v>
       </c>
       <c r="F31">
-        <v>0.0003052152292056751</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.02725004666481843</v>
+      </c>
+      <c r="G31">
+        <v>-0.02481645898261873</v>
+      </c>
+      <c r="H31">
+        <v>0.004028593953085705</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.001260219002049064</v>
+        <v>-0.004285894158805747</v>
       </c>
       <c r="C32">
-        <v>0.02919171928671243</v>
+        <v>-0.0330196627115292</v>
       </c>
       <c r="D32">
-        <v>-0.02475013357826665</v>
+        <v>-0.005397351303123424</v>
       </c>
       <c r="E32">
-        <v>-0.01627388609769065</v>
+        <v>-0.01331334310261877</v>
       </c>
       <c r="F32">
-        <v>0.04149495489015669</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.07577145036229455</v>
+      </c>
+      <c r="G32">
+        <v>-0.04997183184666532</v>
+      </c>
+      <c r="H32">
+        <v>0.05678566744570724</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03407382836042467</v>
+        <v>-0.02569948735057638</v>
       </c>
       <c r="C33">
-        <v>-0.01917793171432963</v>
+        <v>-0.05132875515117417</v>
       </c>
       <c r="D33">
-        <v>-0.03406528813204998</v>
+        <v>0.0135741435403663</v>
       </c>
       <c r="E33">
-        <v>-0.04285375383444877</v>
+        <v>-0.01306126887795725</v>
       </c>
       <c r="F33">
-        <v>-0.01402500816881856</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.02466204453201909</v>
+      </c>
+      <c r="G33">
+        <v>-0.01304967696524053</v>
+      </c>
+      <c r="H33">
+        <v>-0.01547187315870272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02958794712205725</v>
+        <v>-0.04326425358741305</v>
       </c>
       <c r="C34">
-        <v>0.01275280857444744</v>
+        <v>-0.05666698253641761</v>
       </c>
       <c r="D34">
-        <v>-0.0432144416417639</v>
+        <v>-0.006673838757039367</v>
       </c>
       <c r="E34">
-        <v>-0.01531195745955448</v>
+        <v>0.01769530783938583</v>
       </c>
       <c r="F34">
-        <v>0.03107955453326077</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02380518961940361</v>
+      </c>
+      <c r="G34">
+        <v>-0.02157429631346836</v>
+      </c>
+      <c r="H34">
+        <v>0.001227037947098634</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01515429182512989</v>
+        <v>-0.009366925927487176</v>
       </c>
       <c r="C36">
-        <v>0.004772758311228255</v>
+        <v>-0.004505193422811193</v>
       </c>
       <c r="D36">
-        <v>-0.0004145880884737124</v>
+        <v>0.01081351212825465</v>
       </c>
       <c r="E36">
-        <v>-0.01704606066741879</v>
+        <v>0.001304147249193839</v>
       </c>
       <c r="F36">
-        <v>0.005714318194135405</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-5.062889170228017e-05</v>
+      </c>
+      <c r="G36">
+        <v>-0.01443812495864131</v>
+      </c>
+      <c r="H36">
+        <v>-0.0004855843241878897</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02499028239540999</v>
+        <v>-0.02793629056356561</v>
       </c>
       <c r="C38">
-        <v>-0.002322684976387293</v>
+        <v>-0.017465467676748</v>
       </c>
       <c r="D38">
-        <v>-0.01020173787550332</v>
+        <v>-0.008503779360056488</v>
       </c>
       <c r="E38">
-        <v>-0.0414559093680409</v>
+        <v>0.004005737857775007</v>
       </c>
       <c r="F38">
-        <v>-0.001847207704724542</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.008200101452828904</v>
+      </c>
+      <c r="G38">
+        <v>-0.01806920061231345</v>
+      </c>
+      <c r="H38">
+        <v>-0.005864099596715708</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02296266280816294</v>
+        <v>-0.02498851547999298</v>
       </c>
       <c r="C39">
-        <v>0.01011917800233006</v>
+        <v>-0.08381194926470233</v>
       </c>
       <c r="D39">
-        <v>-0.06748578292033831</v>
+        <v>0.01134006386653897</v>
       </c>
       <c r="E39">
-        <v>-0.04709344796192579</v>
+        <v>-0.004474651403035351</v>
       </c>
       <c r="F39">
-        <v>0.04647071978671827</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.04305957674113709</v>
+      </c>
+      <c r="G39">
+        <v>-0.01221614016139777</v>
+      </c>
+      <c r="H39">
+        <v>-0.01131602702911084</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02955328328351276</v>
+        <v>-0.01715699913031738</v>
       </c>
       <c r="C40">
-        <v>-0.001167165280976249</v>
+        <v>-0.0308320694555647</v>
       </c>
       <c r="D40">
-        <v>-0.04094068892969141</v>
+        <v>0.0125203259244475</v>
       </c>
       <c r="E40">
-        <v>-0.03642647297759093</v>
+        <v>-0.01016874239630668</v>
       </c>
       <c r="F40">
-        <v>0.03423459620314327</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02637050079070167</v>
+      </c>
+      <c r="G40">
+        <v>-0.01292014807310189</v>
+      </c>
+      <c r="H40">
+        <v>0.00117862723463852</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01058465197131231</v>
+        <v>-0.01016786351254923</v>
       </c>
       <c r="C41">
-        <v>-0.00104609075188839</v>
+        <v>0.004792839783356588</v>
       </c>
       <c r="D41">
-        <v>0.01101573063116488</v>
+        <v>0.00285570857043017</v>
       </c>
       <c r="E41">
-        <v>-0.005863288777927009</v>
+        <v>0.008334496383992871</v>
       </c>
       <c r="F41">
-        <v>0.001186117507222534</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.0006897395243388183</v>
+      </c>
+      <c r="G41">
+        <v>-0.009270954428913857</v>
+      </c>
+      <c r="H41">
+        <v>0.003882588208207899</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1749210911577996</v>
+        <v>-0.04159959145057657</v>
       </c>
       <c r="C42">
-        <v>-0.1152881394413238</v>
+        <v>-0.06605746974831471</v>
       </c>
       <c r="D42">
-        <v>-0.1135805280243806</v>
+        <v>0.1070163401058579</v>
       </c>
       <c r="E42">
-        <v>-0.1963971295104291</v>
+        <v>-0.08047180088932637</v>
       </c>
       <c r="F42">
-        <v>-0.563544640161954</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1461155429123062</v>
+      </c>
+      <c r="G42">
+        <v>0.2728255200027052</v>
+      </c>
+      <c r="H42">
+        <v>-0.9099332733976286</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01760702265777897</v>
+        <v>-0.02600906216849345</v>
       </c>
       <c r="C43">
-        <v>-0.003812934342782317</v>
+        <v>-0.00609106309018843</v>
       </c>
       <c r="D43">
-        <v>0.008099544234373804</v>
+        <v>0.002821957507761472</v>
       </c>
       <c r="E43">
-        <v>-0.009748993891043273</v>
+        <v>0.005423282729998057</v>
       </c>
       <c r="F43">
-        <v>-0.00616716012795014</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.003574855208493291</v>
+      </c>
+      <c r="G43">
+        <v>-0.01082930993526707</v>
+      </c>
+      <c r="H43">
+        <v>0.00151539430175438</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01005492592580979</v>
+        <v>-0.01334577693677566</v>
       </c>
       <c r="C44">
-        <v>0.009869130187503121</v>
+        <v>-0.04975920966313159</v>
       </c>
       <c r="D44">
-        <v>-0.01627879135848158</v>
+        <v>0.006549867947113121</v>
       </c>
       <c r="E44">
-        <v>-0.07168407210992604</v>
+        <v>-0.01449975472387325</v>
       </c>
       <c r="F44">
-        <v>0.01670590184892346</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.02644024124467868</v>
+      </c>
+      <c r="G44">
+        <v>-0.02886688271433143</v>
+      </c>
+      <c r="H44">
+        <v>-0.01360204275875801</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01026227776471969</v>
+        <v>-0.0005879423489653572</v>
       </c>
       <c r="C46">
-        <v>0.003699459238506392</v>
+        <v>-0.01637972566446674</v>
       </c>
       <c r="D46">
-        <v>-0.02847291195129908</v>
+        <v>0.01126017330516916</v>
       </c>
       <c r="E46">
-        <v>-0.03887741894716167</v>
+        <v>0.006725846417555243</v>
       </c>
       <c r="F46">
-        <v>0.01328038954803841</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.007382360405097429</v>
+      </c>
+      <c r="G46">
+        <v>-0.01767938476833813</v>
+      </c>
+      <c r="H46">
+        <v>0.02295660850808302</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07359719337809505</v>
+        <v>-0.06726713305684506</v>
       </c>
       <c r="C47">
-        <v>-0.0008109122195391153</v>
+        <v>-0.06133946727886248</v>
       </c>
       <c r="D47">
-        <v>-0.02646152703587328</v>
+        <v>-0.00548378887010284</v>
       </c>
       <c r="E47">
-        <v>0.03592785665931104</v>
+        <v>0.01903555882143377</v>
       </c>
       <c r="F47">
-        <v>-0.03481054648602597</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.05906897715138031</v>
+      </c>
+      <c r="G47">
+        <v>-0.01473396367262276</v>
+      </c>
+      <c r="H47">
+        <v>0.004471532106682568</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02577613348385587</v>
+        <v>-0.01425700329266147</v>
       </c>
       <c r="C48">
-        <v>0.004374011322352847</v>
+        <v>-0.01121576016062276</v>
       </c>
       <c r="D48">
-        <v>-0.004929654520865869</v>
+        <v>0.0007349542552215273</v>
       </c>
       <c r="E48">
-        <v>-0.01776630993489458</v>
+        <v>0.007492245761955802</v>
       </c>
       <c r="F48">
-        <v>0.008413881871573879</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01408496952248965</v>
+      </c>
+      <c r="G48">
+        <v>-0.01691183148230992</v>
+      </c>
+      <c r="H48">
+        <v>0.003108962614577446</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07399677726844114</v>
+        <v>-0.07182718596295852</v>
       </c>
       <c r="C50">
-        <v>0.0299171234107325</v>
+        <v>-0.06623081043286094</v>
       </c>
       <c r="D50">
-        <v>-0.04298050360854461</v>
+        <v>-0.004298910043921606</v>
       </c>
       <c r="E50">
-        <v>0.007831287016230315</v>
+        <v>0.01946762654444203</v>
       </c>
       <c r="F50">
-        <v>-0.04831497930228996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.05586631821548149</v>
+      </c>
+      <c r="G50">
+        <v>-0.04023854850636341</v>
+      </c>
+      <c r="H50">
+        <v>0.006989261647992798</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01481659097378758</v>
+        <v>-0.01539711555748858</v>
       </c>
       <c r="C51">
-        <v>0.006576501306317034</v>
+        <v>-0.03004797494166149</v>
       </c>
       <c r="D51">
-        <v>0.01763645373105858</v>
+        <v>0.008510100610709569</v>
       </c>
       <c r="E51">
-        <v>-0.05827545189869517</v>
+        <v>-0.00422378693265749</v>
       </c>
       <c r="F51">
-        <v>0.02847084020468199</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.03502040966723479</v>
+      </c>
+      <c r="G51">
+        <v>-0.03578156393596385</v>
+      </c>
+      <c r="H51">
+        <v>0.003484810890928037</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09895557835453739</v>
+        <v>-0.09379125630383722</v>
       </c>
       <c r="C53">
-        <v>0.01445217819436575</v>
+        <v>-0.08211637607392488</v>
       </c>
       <c r="D53">
-        <v>-0.05781124028057539</v>
+        <v>-0.006345098673070799</v>
       </c>
       <c r="E53">
-        <v>0.05836068161918042</v>
+        <v>0.04202741460811102</v>
       </c>
       <c r="F53">
-        <v>-0.02191111173906835</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.06939877510537294</v>
+      </c>
+      <c r="G53">
+        <v>-0.01597935278121239</v>
+      </c>
+      <c r="H53">
+        <v>-0.006376355980578346</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02870412745814436</v>
+        <v>-0.02816896264783194</v>
       </c>
       <c r="C54">
-        <v>0.007471192419128695</v>
+        <v>-0.004861151996625793</v>
       </c>
       <c r="D54">
-        <v>0.001854717216473048</v>
+        <v>-0.004867368047794426</v>
       </c>
       <c r="E54">
-        <v>-0.004471711639937807</v>
+        <v>0.0009435796920653079</v>
       </c>
       <c r="F54">
-        <v>0.01399556322454898</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.003454633404881447</v>
+      </c>
+      <c r="G54">
+        <v>-0.02492231564278109</v>
+      </c>
+      <c r="H54">
+        <v>0.01716141436385215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.07161671184672767</v>
+        <v>-0.06874503430836883</v>
       </c>
       <c r="C55">
-        <v>0.008120713670224525</v>
+        <v>-0.07281936732609921</v>
       </c>
       <c r="D55">
-        <v>-0.07298019558491758</v>
+        <v>-0.00530789638538083</v>
       </c>
       <c r="E55">
-        <v>0.03757588812530102</v>
+        <v>0.03109460798832043</v>
       </c>
       <c r="F55">
-        <v>-0.04549448630991792</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.06336376563037134</v>
+      </c>
+      <c r="G55">
+        <v>-0.005851969248700781</v>
+      </c>
+      <c r="H55">
+        <v>0.002834194459118385</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1380098333237788</v>
+        <v>-0.1409085831096336</v>
       </c>
       <c r="C56">
-        <v>0.009122616764086459</v>
+        <v>-0.1051378689943041</v>
       </c>
       <c r="D56">
-        <v>-0.08240474444909912</v>
+        <v>-0.0155264418181313</v>
       </c>
       <c r="E56">
-        <v>0.09156435586725095</v>
+        <v>0.04535117294808888</v>
       </c>
       <c r="F56">
-        <v>-0.02468221529806594</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.1071657836304854</v>
+      </c>
+      <c r="G56">
+        <v>0.005384045600661178</v>
+      </c>
+      <c r="H56">
+        <v>-0.001110322209157015</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04074390732437551</v>
+        <v>-0.01541213987527573</v>
       </c>
       <c r="C57">
-        <v>-0.006974963698897216</v>
+        <v>-0.01304159896264603</v>
       </c>
       <c r="D57">
-        <v>-0.01761324978252528</v>
+        <v>0.02351153222736087</v>
       </c>
       <c r="E57">
-        <v>-0.04141331138739449</v>
+        <v>-0.0312670732130693</v>
       </c>
       <c r="F57">
-        <v>0.003170401838784166</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.01739626566695626</v>
+      </c>
+      <c r="G57">
+        <v>-0.02262551547134526</v>
+      </c>
+      <c r="H57">
+        <v>-0.003703770274297994</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1798712994256323</v>
+        <v>-0.06857197258447467</v>
       </c>
       <c r="C58">
-        <v>-0.1302017554130565</v>
+        <v>-0.09403463718192695</v>
       </c>
       <c r="D58">
-        <v>-0.1365872993344386</v>
+        <v>0.02065357413733904</v>
       </c>
       <c r="E58">
-        <v>-0.5899431510114431</v>
+        <v>-0.9479217004916815</v>
       </c>
       <c r="F58">
-        <v>-0.3843406192786171</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2074600029442617</v>
+      </c>
+      <c r="G58">
+        <v>-0.0717540115146181</v>
+      </c>
+      <c r="H58">
+        <v>0.09788408903030746</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1026546805244997</v>
+        <v>-0.163602562751847</v>
       </c>
       <c r="C59">
-        <v>-0.04696464964086152</v>
+        <v>0.2044039453582519</v>
       </c>
       <c r="D59">
-        <v>0.1972984812514245</v>
+        <v>-0.01927884375228423</v>
       </c>
       <c r="E59">
-        <v>-0.04489128598860592</v>
+        <v>-0.01759729058700347</v>
       </c>
       <c r="F59">
-        <v>0.05828301736353728</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01317169751422292</v>
+      </c>
+      <c r="G59">
+        <v>-0.02093338005280715</v>
+      </c>
+      <c r="H59">
+        <v>0.005247789976114994</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2162510026181256</v>
+        <v>-0.2877957670611583</v>
       </c>
       <c r="C60">
-        <v>-0.05016078667422653</v>
+        <v>-0.09568677686164134</v>
       </c>
       <c r="D60">
-        <v>0.01882806010855945</v>
+        <v>0.004459695897069576</v>
       </c>
       <c r="E60">
-        <v>-0.1611777195569466</v>
+        <v>-0.0129786213513972</v>
       </c>
       <c r="F60">
-        <v>0.3574540136295575</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.3898088497384233</v>
+      </c>
+      <c r="G60">
+        <v>0.0451264435005326</v>
+      </c>
+      <c r="H60">
+        <v>0.04115663938823064</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.03478050043634431</v>
+        <v>-0.02736760904536976</v>
       </c>
       <c r="C61">
-        <v>0.00437302624315115</v>
+        <v>-0.06573199738378033</v>
       </c>
       <c r="D61">
-        <v>-0.05505083905423233</v>
+        <v>0.004643501749244368</v>
       </c>
       <c r="E61">
-        <v>-0.03031057116380332</v>
+        <v>0.0008930669216852687</v>
       </c>
       <c r="F61">
-        <v>0.05154953828333199</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.02899438281948158</v>
+      </c>
+      <c r="G61">
+        <v>-0.01552393451455018</v>
+      </c>
+      <c r="H61">
+        <v>0.002895984843983017</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01708167403089405</v>
+        <v>-0.0113951214177686</v>
       </c>
       <c r="C63">
-        <v>0.007646510776214943</v>
+        <v>-0.029451123042185</v>
       </c>
       <c r="D63">
-        <v>-0.02301407812651295</v>
+        <v>0.007435717674595027</v>
       </c>
       <c r="E63">
-        <v>-0.0037038509882404</v>
+        <v>0.01720442804511956</v>
       </c>
       <c r="F63">
-        <v>-0.01711380303894825</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.0051390855123887</v>
+      </c>
+      <c r="G63">
+        <v>-0.02083326310094156</v>
+      </c>
+      <c r="H63">
+        <v>0.006739363133735869</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05097333551302322</v>
+        <v>-0.04397043286711351</v>
       </c>
       <c r="C64">
-        <v>0.002843328192792487</v>
+        <v>-0.03602106346353156</v>
       </c>
       <c r="D64">
-        <v>-0.03542959868304599</v>
+        <v>0.003830257595396839</v>
       </c>
       <c r="E64">
-        <v>-0.01383916606399176</v>
+        <v>0.01866840138904787</v>
       </c>
       <c r="F64">
-        <v>0.01744158923268964</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.01503347866628928</v>
+      </c>
+      <c r="G64">
+        <v>-0.00983973810569441</v>
+      </c>
+      <c r="H64">
+        <v>-0.02936574834911177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.07313768660203523</v>
+        <v>-0.0740209194502454</v>
       </c>
       <c r="C65">
-        <v>0.006717372868630765</v>
+        <v>-0.07602518300862837</v>
       </c>
       <c r="D65">
-        <v>-0.0492320475927535</v>
+        <v>0.01505524617518826</v>
       </c>
       <c r="E65">
-        <v>-0.02419272264814374</v>
+        <v>0.002910695479483755</v>
       </c>
       <c r="F65">
-        <v>0.0507840173352162</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.0414450955001141</v>
+      </c>
+      <c r="G65">
+        <v>-0.00886103918188925</v>
+      </c>
+      <c r="H65">
+        <v>0.01150173538545249</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04603583746872755</v>
+        <v>-0.04474486344328994</v>
       </c>
       <c r="C66">
-        <v>-0.007615692748148311</v>
+        <v>-0.1214874251447711</v>
       </c>
       <c r="D66">
-        <v>-0.08195671434385991</v>
+        <v>0.01044640859119852</v>
       </c>
       <c r="E66">
-        <v>-0.02664334025755414</v>
+        <v>-0.004250134517396655</v>
       </c>
       <c r="F66">
-        <v>0.07017673607738224</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.05128186892244718</v>
+      </c>
+      <c r="G66">
+        <v>-0.003848451572845443</v>
+      </c>
+      <c r="H66">
+        <v>0.01458905351568908</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.04313095674519029</v>
+        <v>-0.05427641723529093</v>
       </c>
       <c r="C67">
-        <v>-0.00606198396136906</v>
+        <v>-0.0211258270396792</v>
       </c>
       <c r="D67">
-        <v>-0.007763488138196385</v>
+        <v>-0.007624354403523693</v>
       </c>
       <c r="E67">
-        <v>-0.02140562423724274</v>
+        <v>0.01001789551369307</v>
       </c>
       <c r="F67">
-        <v>0.008288114579390051</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.005731697059040372</v>
+      </c>
+      <c r="G67">
+        <v>-0.01764955316375587</v>
+      </c>
+      <c r="H67">
+        <v>-0.001391451809651142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08680115927469977</v>
+        <v>-0.1378851468331382</v>
       </c>
       <c r="C68">
-        <v>-0.04384533115663521</v>
+        <v>0.2536411998724279</v>
       </c>
       <c r="D68">
-        <v>0.2211728540173988</v>
+        <v>-0.0004092739284367448</v>
       </c>
       <c r="E68">
-        <v>-0.007388139973073452</v>
+        <v>-0.01669725256259666</v>
       </c>
       <c r="F68">
-        <v>0.01066527184115657</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01779123543261236</v>
+      </c>
+      <c r="G68">
+        <v>-0.02040865987098901</v>
+      </c>
+      <c r="H68">
+        <v>-0.007991240481796938</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05525259793991525</v>
+        <v>-0.07080731709594425</v>
       </c>
       <c r="C69">
-        <v>0.0006579854262302955</v>
+        <v>-0.05898269937934034</v>
       </c>
       <c r="D69">
-        <v>-0.03729306155724759</v>
+        <v>-0.01025679434332353</v>
       </c>
       <c r="E69">
-        <v>0.02535251930173095</v>
+        <v>0.03435737281711158</v>
       </c>
       <c r="F69">
-        <v>-0.005353443661200054</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.03434300723822165</v>
+      </c>
+      <c r="G69">
+        <v>-0.01069379128989237</v>
+      </c>
+      <c r="H69">
+        <v>0.01449984958317049</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07994444459191391</v>
+        <v>-0.1370951865673724</v>
       </c>
       <c r="C71">
-        <v>-0.03044742346875021</v>
+        <v>0.2136282842108872</v>
       </c>
       <c r="D71">
-        <v>0.2210653654673371</v>
+        <v>-0.009372917735604544</v>
       </c>
       <c r="E71">
-        <v>-0.02125796104294178</v>
+        <v>-0.02328916153512862</v>
       </c>
       <c r="F71">
-        <v>-0.04618301441222799</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.02252050632011188</v>
+      </c>
+      <c r="G71">
+        <v>-0.0324597288806574</v>
+      </c>
+      <c r="H71">
+        <v>-0.0235299768487415</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1329722910882132</v>
+        <v>-0.07677163791796875</v>
       </c>
       <c r="C72">
-        <v>-0.008353404388123702</v>
+        <v>-0.08656738475579298</v>
       </c>
       <c r="D72">
-        <v>-0.1225309493324397</v>
+        <v>-0.009847524585368269</v>
       </c>
       <c r="E72">
-        <v>-0.1214850649437428</v>
+        <v>0.01922672356217129</v>
       </c>
       <c r="F72">
-        <v>0.2234576449581993</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.04161330400399338</v>
+      </c>
+      <c r="G72">
+        <v>0.003570258989682553</v>
+      </c>
+      <c r="H72">
+        <v>0.01845556775863364</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2656687093273785</v>
+        <v>-0.3903880037813201</v>
       </c>
       <c r="C73">
-        <v>-0.1107981929459627</v>
+        <v>-0.1229760399582164</v>
       </c>
       <c r="D73">
-        <v>-0.01792981149038876</v>
+        <v>0.008847914262386489</v>
       </c>
       <c r="E73">
-        <v>-0.2404464670153408</v>
+        <v>-0.06346330540942016</v>
       </c>
       <c r="F73">
-        <v>0.3300993284853961</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.5344738294227833</v>
+      </c>
+      <c r="G73">
+        <v>0.09301729273868947</v>
+      </c>
+      <c r="H73">
+        <v>-0.0606673602275716</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1261266076578317</v>
+        <v>-0.1089853234801819</v>
       </c>
       <c r="C74">
-        <v>0.0004060151061972754</v>
+        <v>-0.1209704736067084</v>
       </c>
       <c r="D74">
-        <v>-0.08411727074125611</v>
+        <v>-0.01090655171053849</v>
       </c>
       <c r="E74">
-        <v>0.07751360819239021</v>
+        <v>0.04270736506888471</v>
       </c>
       <c r="F74">
-        <v>-0.008119729576537536</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.07309540846911024</v>
+      </c>
+      <c r="G74">
+        <v>-0.008794206142112557</v>
+      </c>
+      <c r="H74">
+        <v>-0.0004940791288624604</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2622354104365343</v>
+        <v>-0.2510502541592493</v>
       </c>
       <c r="C75">
-        <v>-0.01014501503065883</v>
+        <v>-0.159750976261143</v>
       </c>
       <c r="D75">
-        <v>-0.1258872339247195</v>
+        <v>-0.03192478400979749</v>
       </c>
       <c r="E75">
-        <v>0.160747247344753</v>
+        <v>0.06153959863981833</v>
       </c>
       <c r="F75">
-        <v>0.007851443575511494</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.2187646101232872</v>
+      </c>
+      <c r="G75">
+        <v>0.02770582048433301</v>
+      </c>
+      <c r="H75">
+        <v>0.01395208683005474</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2446483914200155</v>
+        <v>-0.1430233291694649</v>
       </c>
       <c r="C76">
-        <v>0.01282415227141528</v>
+        <v>-0.1355363853267516</v>
       </c>
       <c r="D76">
-        <v>-0.1315942365602588</v>
+        <v>-0.02388600865253667</v>
       </c>
       <c r="E76">
-        <v>0.2248395406955106</v>
+        <v>0.07319076833620909</v>
       </c>
       <c r="F76">
-        <v>-0.02163591461452022</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1466081413624874</v>
+      </c>
+      <c r="G76">
+        <v>-0.001307093195526363</v>
+      </c>
+      <c r="H76">
+        <v>0.0105106011894339</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.05001424501120891</v>
+        <v>-0.05213256270580026</v>
       </c>
       <c r="C77">
-        <v>-0.001686978327000305</v>
+        <v>-0.06004676416880529</v>
       </c>
       <c r="D77">
-        <v>-0.04544760135460389</v>
+        <v>0.01064499810762909</v>
       </c>
       <c r="E77">
-        <v>-0.06116293203868043</v>
+        <v>-0.02673005343864317</v>
       </c>
       <c r="F77">
-        <v>-0.07583661427235788</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.009089710079845326</v>
+      </c>
+      <c r="G77">
+        <v>-0.03166704844469374</v>
+      </c>
+      <c r="H77">
+        <v>0.008092999489726447</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03162964518969109</v>
+        <v>-0.03942993906512174</v>
       </c>
       <c r="C78">
-        <v>0.008824729486871977</v>
+        <v>-0.05451324614588986</v>
       </c>
       <c r="D78">
-        <v>-0.04705039778199945</v>
+        <v>0.004680454192629314</v>
       </c>
       <c r="E78">
-        <v>-0.06236320287406751</v>
+        <v>-0.01440175849266684</v>
       </c>
       <c r="F78">
-        <v>0.06033779453365525</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04708591203355621</v>
+      </c>
+      <c r="G78">
+        <v>-0.0252967740772821</v>
+      </c>
+      <c r="H78">
+        <v>0.01320677308720047</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2059789664689861</v>
+        <v>-0.06042792969522179</v>
       </c>
       <c r="C80">
-        <v>0.9426865991456632</v>
+        <v>-0.08292955332332563</v>
       </c>
       <c r="D80">
-        <v>0.1345900634896276</v>
+        <v>0.01268659089350947</v>
       </c>
       <c r="E80">
-        <v>-0.1270300866122694</v>
+        <v>0.07315559171765108</v>
       </c>
       <c r="F80">
-        <v>-0.05867458065262657</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.01802872642621142</v>
+      </c>
+      <c r="G80">
+        <v>-0.9155503633238469</v>
+      </c>
+      <c r="H80">
+        <v>-0.2632132259987862</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.2012099773494041</v>
+        <v>-0.1466669144677251</v>
       </c>
       <c r="C81">
-        <v>0.002775961552812673</v>
+        <v>-0.1019024432302756</v>
       </c>
       <c r="D81">
-        <v>-0.09385468096575271</v>
+        <v>-0.0181601017496995</v>
       </c>
       <c r="E81">
-        <v>0.1228012792923542</v>
+        <v>0.04401311043553026</v>
       </c>
       <c r="F81">
-        <v>-0.01979743170893263</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.139585074738983</v>
+      </c>
+      <c r="G81">
+        <v>-0.007927077525959355</v>
+      </c>
+      <c r="H81">
+        <v>0.01113658774484498</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.03543425040789373</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.02807683020252731</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.002139207202196125</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.02018000218637619</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.002160366095809442</v>
+      </c>
+      <c r="G82">
+        <v>-0.0009132312940151711</v>
+      </c>
+      <c r="H82">
+        <v>0.01680833232733202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03894150039201894</v>
+        <v>-0.02843274774101228</v>
       </c>
       <c r="C83">
-        <v>-0.006700850713064328</v>
+        <v>-0.01814833693391095</v>
       </c>
       <c r="D83">
-        <v>-0.003573793309500584</v>
+        <v>0.004441927127147423</v>
       </c>
       <c r="E83">
-        <v>-0.03771270248154746</v>
+        <v>-0.02192793296996547</v>
       </c>
       <c r="F83">
-        <v>0.0004893400366090672</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.02301582927236803</v>
+      </c>
+      <c r="G83">
+        <v>-0.02569458289459311</v>
+      </c>
+      <c r="H83">
+        <v>0.009459353436577143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2513743648545607</v>
+        <v>-0.2403821873684795</v>
       </c>
       <c r="C85">
-        <v>-0.0182069781199911</v>
+        <v>-0.1673010986878422</v>
       </c>
       <c r="D85">
-        <v>-0.1511063820691291</v>
+        <v>-0.02151938428244168</v>
       </c>
       <c r="E85">
-        <v>0.1829021757120166</v>
+        <v>0.1050294547870935</v>
       </c>
       <c r="F85">
-        <v>-0.02470974989442436</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.2091115395571657</v>
+      </c>
+      <c r="G85">
+        <v>0.0641256036674849</v>
+      </c>
+      <c r="H85">
+        <v>0.005237591268501089</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01259727684508343</v>
+        <v>-0.009247609935189013</v>
       </c>
       <c r="C86">
-        <v>0.008715306129270285</v>
+        <v>-0.02798014940989305</v>
       </c>
       <c r="D86">
-        <v>-0.02848528389021608</v>
+        <v>0.009372277956461651</v>
       </c>
       <c r="E86">
-        <v>-0.05619189077902729</v>
+        <v>-0.01411470384400027</v>
       </c>
       <c r="F86">
-        <v>0.005318406245308406</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02396574180359898</v>
+      </c>
+      <c r="G86">
+        <v>-0.04624753216555692</v>
+      </c>
+      <c r="H86">
+        <v>-0.02522973365957479</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02888403783427885</v>
+        <v>-0.01697583595691484</v>
       </c>
       <c r="C87">
-        <v>0.005935983145353659</v>
+        <v>-0.02968948842750585</v>
       </c>
       <c r="D87">
-        <v>-0.02883083565994</v>
+        <v>0.01076240080954015</v>
       </c>
       <c r="E87">
-        <v>-0.1045980636265812</v>
+        <v>-0.07412829429268614</v>
       </c>
       <c r="F87">
-        <v>0.0484382332331813</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.06463540403648625</v>
+      </c>
+      <c r="G87">
+        <v>-0.03814507212890424</v>
+      </c>
+      <c r="H87">
+        <v>-0.003814974273549353</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04962722130071507</v>
+        <v>-0.07802182168992935</v>
       </c>
       <c r="C88">
-        <v>-0.009460333958926303</v>
+        <v>-0.04970224734533429</v>
       </c>
       <c r="D88">
-        <v>-0.002427541313752844</v>
+        <v>0.02020303179140745</v>
       </c>
       <c r="E88">
-        <v>-0.00166841790793535</v>
+        <v>0.01872572083066667</v>
       </c>
       <c r="F88">
-        <v>0.02224480327177259</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.012076039098685</v>
+      </c>
+      <c r="G88">
+        <v>-0.02105557642203336</v>
+      </c>
+      <c r="H88">
+        <v>0.02247496609766792</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1633413050485422</v>
+        <v>-0.2381262318002111</v>
       </c>
       <c r="C89">
-        <v>-0.08946945907329588</v>
+        <v>0.3692901973146789</v>
       </c>
       <c r="D89">
-        <v>0.3839404268662366</v>
+        <v>-0.0135930781768794</v>
       </c>
       <c r="E89">
-        <v>0.0123205642520952</v>
+        <v>0.002285537074681695</v>
       </c>
       <c r="F89">
-        <v>0.03955635396819793</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.02525634728141579</v>
+      </c>
+      <c r="G89">
+        <v>-0.0242247830995049</v>
+      </c>
+      <c r="H89">
+        <v>0.01359699213340006</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.09264228937318388</v>
+        <v>-0.1989091510749047</v>
       </c>
       <c r="C90">
-        <v>-0.07921088509816861</v>
+        <v>0.3284299597853972</v>
       </c>
       <c r="D90">
-        <v>0.3298961493194625</v>
+        <v>-0.01484470205932679</v>
       </c>
       <c r="E90">
-        <v>0.05558534287307858</v>
+        <v>-0.0073777585671563</v>
       </c>
       <c r="F90">
-        <v>-0.04884711878850453</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.04505491744141991</v>
+      </c>
+      <c r="G90">
+        <v>-0.003602858731594211</v>
+      </c>
+      <c r="H90">
+        <v>-0.0003094152202151962</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.274111141512176</v>
+        <v>-0.2061213254861189</v>
       </c>
       <c r="C91">
-        <v>-0.01276791891125432</v>
+        <v>-0.139517490957947</v>
       </c>
       <c r="D91">
-        <v>-0.1610852367163241</v>
+        <v>-0.0270197065684807</v>
       </c>
       <c r="E91">
-        <v>0.2376610983876989</v>
+        <v>0.08495129290144179</v>
       </c>
       <c r="F91">
-        <v>-0.05758870186075787</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.1966366963952034</v>
+      </c>
+      <c r="G91">
+        <v>0.02143405981403194</v>
+      </c>
+      <c r="H91">
+        <v>0.001676069789994222</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2526978884547242</v>
+        <v>-0.2332516303484815</v>
       </c>
       <c r="C92">
-        <v>-0.08955690165792665</v>
+        <v>0.2556439852751685</v>
       </c>
       <c r="D92">
-        <v>0.3359532121862582</v>
+        <v>-0.05802192962027483</v>
       </c>
       <c r="E92">
-        <v>0.1458689934937038</v>
+        <v>-0.004707067388622187</v>
       </c>
       <c r="F92">
-        <v>-0.2170742000814894</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1407726618376464</v>
+      </c>
+      <c r="G92">
+        <v>-0.04629332336218526</v>
+      </c>
+      <c r="H92">
+        <v>-0.01411414839529802</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1458828458981533</v>
+        <v>-0.2252549033446447</v>
       </c>
       <c r="C93">
-        <v>-0.1069571379021671</v>
+        <v>0.3243591279099212</v>
       </c>
       <c r="D93">
-        <v>0.3818410521716366</v>
+        <v>-0.0215257325727994</v>
       </c>
       <c r="E93">
-        <v>0.0224518577337963</v>
+        <v>-0.01925718080176521</v>
       </c>
       <c r="F93">
-        <v>-0.04041168575338058</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.01599000191543393</v>
+      </c>
+      <c r="G93">
+        <v>0.005472896458804873</v>
+      </c>
+      <c r="H93">
+        <v>-0.04123731233003834</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3150016336798515</v>
+        <v>-0.2756325665030396</v>
       </c>
       <c r="C94">
-        <v>-0.04512461280040285</v>
+        <v>-0.1656672235039456</v>
       </c>
       <c r="D94">
-        <v>-0.1298198034814548</v>
+        <v>-0.01595751285893008</v>
       </c>
       <c r="E94">
-        <v>0.2362179874313248</v>
+        <v>0.09913139316484944</v>
       </c>
       <c r="F94">
-        <v>-0.03047622269969649</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.3599079611364424</v>
+      </c>
+      <c r="G94">
+        <v>0.1136663284610075</v>
+      </c>
+      <c r="H94">
+        <v>0.2399869063835057</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07826301661485904</v>
+        <v>-0.07299847049416383</v>
       </c>
       <c r="C95">
-        <v>-0.07454861941557432</v>
+        <v>-0.09468785955917437</v>
       </c>
       <c r="D95">
-        <v>-0.05315388755862402</v>
+        <v>-0.007116410275183363</v>
       </c>
       <c r="E95">
-        <v>-0.01831772982074909</v>
+        <v>-0.07270158297931742</v>
       </c>
       <c r="F95">
-        <v>0.09654932345820065</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.1476013442579922</v>
+      </c>
+      <c r="G95">
+        <v>0.05908263102141661</v>
+      </c>
+      <c r="H95">
+        <v>-0.01392352332524058</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2187892521652503</v>
+        <v>-0.2124991164594284</v>
       </c>
       <c r="C98">
-        <v>-0.07160257118752587</v>
+        <v>-0.05477267748214067</v>
       </c>
       <c r="D98">
-        <v>0.02639682756549466</v>
+        <v>-0.02049062709002838</v>
       </c>
       <c r="E98">
-        <v>-0.238280309582651</v>
+        <v>-0.06523030907273843</v>
       </c>
       <c r="F98">
-        <v>0.3202542131240458</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.257631591402391</v>
+      </c>
+      <c r="G98">
+        <v>0.03311987598846679</v>
+      </c>
+      <c r="H98">
+        <v>-0.05266583397990052</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.02871892482866243</v>
+        <v>-0.01397125334752891</v>
       </c>
       <c r="C101">
-        <v>0.001457859991614113</v>
+        <v>-0.02389742460050597</v>
       </c>
       <c r="D101">
-        <v>-0.02320593407220153</v>
+        <v>0.008094464472325277</v>
       </c>
       <c r="E101">
-        <v>-0.1207819819953491</v>
+        <v>-0.03278054313334374</v>
       </c>
       <c r="F101">
-        <v>-0.1100446518344815</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.02221354280184886</v>
+      </c>
+      <c r="G101">
+        <v>-0.03232338777164238</v>
+      </c>
+      <c r="H101">
+        <v>0.02219019274718093</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1366324782941862</v>
+        <v>-0.1174778942201197</v>
       </c>
       <c r="C102">
-        <v>-0.004489789842184718</v>
+        <v>-0.08088668316096206</v>
       </c>
       <c r="D102">
-        <v>-0.06448194320542365</v>
+        <v>-0.001080395128705395</v>
       </c>
       <c r="E102">
-        <v>0.1042754844477528</v>
+        <v>0.04678607747082695</v>
       </c>
       <c r="F102">
-        <v>-0.04669785563386429</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.06275915533136281</v>
+      </c>
+      <c r="G102">
+        <v>0.01920299226774784</v>
+      </c>
+      <c r="H102">
+        <v>-0.01137566261155275</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.03331012260983437</v>
+        <v>-0.006018660798238308</v>
       </c>
       <c r="C103">
-        <v>0.01560662099261423</v>
+        <v>-0.006488303921213651</v>
       </c>
       <c r="D103">
-        <v>-0.02002533180025606</v>
+        <v>0.0003621213072557398</v>
       </c>
       <c r="E103">
-        <v>0.01317388457543885</v>
+        <v>0.001652790220456077</v>
       </c>
       <c r="F103">
-        <v>-0.001164734989260718</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01143129360688077</v>
+      </c>
+      <c r="G103">
+        <v>-0.01404520204835053</v>
+      </c>
+      <c r="H103">
+        <v>-0.008032199411483545</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.05145387409614689</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.04777002218526041</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9850738878086539</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.04326465233203876</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.03366968654594759</v>
+      </c>
+      <c r="G104">
+        <v>-0.006644124980297237</v>
+      </c>
+      <c r="H104">
+        <v>0.09947598679586415</v>
       </c>
     </row>
   </sheetData>
